--- a/tables/xlsx/Quest/GeneralQuest.xlsx
+++ b/tables/xlsx/Quest/GeneralQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\Projects\Planetarium\NineChronicles\tables\xlsx\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54C19B0-2B2C-4256-9DC4-2CB7339B63DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23B951B-1AB5-4106-A39A-566D4614F65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5805" yWindow="3735" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,16 +159,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -176,25 +196,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -205,19 +297,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9282A477-72DA-42E9-A206-4A90255B460A}" name="GeneralQuestSheet" displayName="GeneralQuestSheet" ref="A1:D31" totalsRowShown="0">
-  <autoFilter ref="A1:D31" xr:uid="{9282A477-72DA-42E9-A206-4A90255B460A}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6DDDCE0B-CA76-475D-93CA-0484D6646ED3}" name="id" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{EC8018CE-9CB0-4487-9323-24C1664FF8F2}" name="goal"/>
-    <tableColumn id="3" xr3:uid="{A396BC51-226D-4CA6-AFD4-875084AA97A2}" name="quest_reward_id"/>
-    <tableColumn id="4" xr3:uid="{B8EDF43D-F5F6-40B1-B0B2-925CCCC785BA}" name="event" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,7 +565,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,444 +577,441 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>50</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>30</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>50</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>70</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>90</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>120</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>140</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>21</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>160</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>21</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>180</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>21</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>200</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>21</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>50</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>11</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>100</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>11</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>4</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>11</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>50</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>13</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>20</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>12</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>30</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>14</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>3</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>20</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>30</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>12</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>40</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>12</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>50</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>12</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="9" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
